--- a/output/SCAN000702-1/match_locs.xlsx
+++ b/output/SCAN000702-1/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,193 +34,217 @@
     <t>1</t>
   </si>
   <si>
-    <t>3.5092</t>
+    <t>4.0621</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[209.16303185 200.8841948 ]
+ [183.28945338  54.1478396 ]
+ [330.02580858  28.27426113]
+ [355.89938705 175.01061633]]</t>
+  </si>
+  <si>
+    <t>[[  0. 245.]
+ [149. 245.]
+ [149. 394.]
+ [  0. 394.]]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3.9102</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[346.45190528  86.54809472]
+ [271.95190528 215.58587988]
+ [142.91412012 141.08587988]
+ [217.41412012  12.04809472]]</t>
+  </si>
+  <si>
+    <t>[[270. 215.]
+ [419. 215.]
+ [419. 364.]
+ [270. 364.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.8674</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>[[343.8841948  174.83696815]
+ [197.1478396  200.71054662]
+ [171.27426113  53.97419142]
+ [318.01061633  28.10061295]]</t>
+  </si>
+  <si>
+    <t>[[100.   5.]
+ [249.   5.]
+ [249. 154.]
+ [100. 154.]]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.8649</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[ 2.29548095e+02  2.03451905e+02]
+ [ 1.55048095e+02  7.44141201e+01]
+ [ 2.84085880e+02 -8.58798800e-02]
+ [ 3.58585880e+02  1.28951905e+02]]</t>
+  </si>
+  <si>
+    <t>[[  0. 115.]
+ [149. 115.]
+ [149. 264.]
+ [  0. 264.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.8486</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>[[141.54809472 141.45190528]
+ [216.04809472  12.41412012]
+ [345.08587988  86.91412012]
+ [270.58587988 215.95190528]]</t>
+  </si>
+  <si>
+    <t>[[ 25. 220.]
+ [174. 220.]
+ [174. 369.]
+ [ 25. 369.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.8340</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>[[214.16303185  38.1158052 ]
- [360.89938705  63.98938367]
- [335.02580858 210.72573887]
- [188.28945338 184.8521604 ]]</t>
-  </si>
-  <si>
-    <t>[[250. 300.]
- [399. 300.]
- [399. 449.]
- [250. 449.]]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.2834</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[214.16303185 211.8841948 ]
- [188.28945338  65.1478396 ]
- [335.02580858  39.27426113]
- [360.89938705 186.01061633]]</t>
-  </si>
-  <si>
-    <t>[[  0. 250.]
- [149. 250.]
- [149. 399.]
- [  0. 399.]]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.2151</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>[[361.8841948   64.16303185]
- [336.01061633 210.89938705]
- [189.27426113 185.02580858]
- [215.1478396   38.28945338]]</t>
-  </si>
-  <si>
-    <t>[[300.  50.]
- [449.  50.]
- [449. 199.]
- [300. 199.]]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.1849</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>[[377.45190528  97.54809472]
- [302.95190528 226.58587988]
- [173.91412012 152.08587988]
- [248.41412012  23.04809472]]</t>
-  </si>
-  <si>
-    <t>[[250. 200.]
- [399. 200.]
- [399. 349.]
- [250. 349.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.1362</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>[[ 50. 400.]
- [199. 400.]
- [199. 549.]
- [ 50. 549.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.0841</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>[[119.33759604 115.75573749]
- [233.47821806  19.98038365]
- [329.25357191 134.12100567]
- [215.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[150. 200.]
- [299. 200.]
- [299. 349.]
- [150. 349.]]</t>
+    <t>[[225.17456419 210.12845731]
+ [174.21356283  70.11425681]
+ [314.22776333  19.15325546]
+ [365.18876469 159.16745595]]</t>
+  </si>
+  <si>
+    <t>[[ 80. 520.]
+ [229. 520.]
+ [229. 669.]
+ [ 80. 669.]]</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>3.0789</t>
+    <t>3.8097</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>[[169.33759604 134.24426251]
- [265.11294988  20.10364048]
- [379.25357191 115.87899433]
- [283.47821806 230.01961635]]</t>
-  </si>
-  <si>
-    <t>[[ 50. 200.]
- [199. 200.]
- [199. 349.]
- [ 50. 349.]]</t>
+    <t>[[372.45190528  86.54809472]
+ [297.95190528 215.58587988]
+ [168.91412012 141.08587988]
+ [243.41412012  12.04809472]]</t>
+  </si>
+  <si>
+    <t>[[480.  15.]
+ [629.  15.]
+ [629. 164.]
+ [480. 164.]]</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>3.0330</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>[[ 50. 250.]
- [199. 250.]
- [199. 399.]
- [ 50. 399.]]</t>
+    <t>3.8009</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[147.87154269 158.82543581]
+ [198.83254405  18.81123531]
+ [338.84674454  69.77223667]
+ [287.88574319 209.78643717]]</t>
+  </si>
+  <si>
+    <t>[[ 15. 160.]
+ [164. 160.]
+ [164. 309.]
+ [ 15. 309.]]</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>3.0170</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[200. 200.]
- [200.  51.]
- [349.  51.]
- [349. 200.]]</t>
-  </si>
-  <si>
-    <t>[[  0. 150.]
- [149. 150.]
- [149. 299.]
- [  0. 299.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.0105</t>
+    <t>3.7888</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[330.83696815  27.1158052 ]
+ [356.71054662 173.8521604 ]
+ [209.97419142 199.72573887]
+ [184.10061295  52.98938367]]</t>
+  </si>
+  <si>
+    <t>[[145. 180.]
+ [294. 180.]
+ [294. 329.]
+ [145. 329.]]</t>
+  </si>
+  <si>
+    <t>3.6275</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>[[242.54809472 229.45190528]
+ [168.04809472 100.41412012]
+ [297.08587988  25.91412012]
+ [371.58587988 154.95190528]]</t>
+  </si>
+  <si>
+    <t>[[ 30.  70.]
+ [179.  70.]
+ [179. 219.]
+ [ 30. 219.]]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.6205</t>
   </si>
   <si>
     <t>205</t>
-  </si>
-  <si>
-    <t>[[335.83696815  38.1158052 ]
- [361.71054662 184.8521604 ]
- [214.97419142 210.72573887]
- [189.10061295  63.98938367]]</t>
   </si>
   <si>
     <t>[[250. 100.]
@@ -229,175 +253,181 @@
  [250. 249.]]</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2.9947</t>
-  </si>
-  <si>
-    <t>[[380.66240396 115.75573749]
- [284.88705012 229.89635952]
- [170.74642809 134.12100567]
- [266.52178194  19.98038365]]</t>
-  </si>
-  <si>
-    <t>[[150.   0.]
- [299.   0.]
- [299. 149.]
- [150. 149.]]</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>2.9876</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[172.54809472 152.45190528]
- [247.04809472  23.41412012]
- [376.08587988  97.91412012]
- [301.58587988 226.95190528]]</t>
-  </si>
-  <si>
-    <t>[[  0. 350.]
- [149. 350.]
- [149. 499.]
- [  0. 499.]]</t>
+    <t>3.5961</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[ 75. 400.]
+ [224. 400.]
+ [224. 549.]
+ [ 75. 549.]]</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>2.9391</t>
+    <t>3.5667</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>[[372.45190528 141.45190528]
+ [243.41412012 215.95190528]
+ [168.91412012  86.91412012]
+ [297.95190528  12.41412012]]</t>
+  </si>
+  <si>
+    <t>[[165. 140.]
+ [314. 140.]
+ [314. 289.]
+ [165. 289.]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.4904</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>[[157.1158052  174.83696815]
+ [182.98938367  28.10061295]
+ [329.72573887  53.97419142]
+ [303.8521604  200.71054662]]</t>
+  </si>
+  <si>
+    <t>[[260. 195.]
+ [409. 195.]
+ [409. 344.]
+ [260. 344.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.4862</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>[[138.33759604 123.24426251]
+ [234.11294988   9.10364048]
+ [348.25357191 104.87899433]
+ [252.47821806 219.01961635]]</t>
+  </si>
+  <si>
+    <t>[[165. 205.]
+ [314. 205.]
+ [314. 354.]
+ [165. 354.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.4798</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2.9180</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>[[200. 450.]
- [349. 450.]
- [349. 599.]
- [200. 599.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2.8472</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>[[169.33759604 115.75573749]
- [283.47821806  19.98038365]
- [379.25357191 134.12100567]
- [265.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[350. 100.]
- [499. 100.]
- [499. 249.]
- [350. 249.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2.8469</t>
+    <t>[[151.33759604 136.24426251]
+ [247.11294988  22.10364048]
+ [361.25357191 117.87899433]
+ [265.47821806 232.01961635]]</t>
+  </si>
+  <si>
+    <t>[[  0. 265.]
+ [149. 265.]
+ [149. 414.]
+ [  0. 414.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.4756</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[[247.75573749   8.33759604]
+ [361.89635952 104.11294988]
+ [266.12100567 218.25357191]
+ [151.98038365 122.47821806]]</t>
+  </si>
+  <si>
+    <t>[[190. 315.]
+ [339. 315.]
+ [339. 464.]
+ [190. 464.]]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.4051</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>[[151.33759604 104.75573749]
+ [265.47821806   8.98038365]
+ [361.25357191 123.12100567]
+ [247.11294988 218.89635952]]</t>
+  </si>
+  <si>
+    <t>[[ 25. 115.]
+ [174. 115.]
+ [174. 264.]
+ [ 25. 264.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.3712</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>[[269.82543581  28.87154269]
- [320.78643717 168.88574319]
- [180.77223667 219.84674454]
- [129.81123531  79.83254405]]</t>
-  </si>
-  <si>
-    <t>[[100.  50.]
- [249.  50.]
- [249. 199.]
- [100. 199.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2.6498</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>[[319.82543581  28.87154269]
- [370.78643717 168.88574319]
- [230.77223667 219.84674454]
- [179.81123531  79.83254405]]</t>
-  </si>
-  <si>
-    <t>[[100. 250.]
- [249. 250.]
- [249. 399.]
- [100. 399.]]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2.6455</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>[[  0. 300.]
- [149. 300.]
- [149. 449.]
- [  0. 449.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2.6411</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>[[230.17456419 221.12845731]
- [179.21356283  81.11425681]
- [319.22776333  30.15325546]
- [370.18876469 170.16745595]]</t>
-  </si>
-  <si>
-    <t>[[ 50.  50.]
- [199.  50.]
- [199. 199.]
- [ 50. 199.]]</t>
+    <t>[[356.8841948  174.83696815]
+ [210.1478396  200.71054662]
+ [184.27426113  53.97419142]
+ [331.01061633  28.10061295]]</t>
+  </si>
+  <si>
+    <t>[[195. 220.]
+ [344. 220.]
+ [344. 369.]
+ [195. 369.]]</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>2.6397</t>
-  </si>
-  <si>
-    <t>113</t>
+    <t>3.3435</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>[[255. 115.]
+ [404. 115.]
+ [404. 264.]
+ [255. 264.]]</t>
   </si>
 </sst>
 </file>
@@ -841,126 +871,126 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -977,129 +1007,129 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-1/match_locs.xlsx
+++ b/output/SCAN000702-1/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,379 +34,220 @@
     <t>1</t>
   </si>
   <si>
-    <t>4.0621</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[209.16303185 200.8841948 ]
- [183.28945338  54.1478396 ]
- [330.02580858  28.27426113]
- [355.89938705 175.01061633]]</t>
-  </si>
-  <si>
-    <t>[[  0. 245.]
- [149. 245.]
- [149. 394.]
- [  0. 394.]]</t>
+    <t>4.5725</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[125.33759604 143.75573749]
+ [239.47821806  47.98038365]
+ [335.25357191 162.12100567]
+ [221.11294988 257.89635952]]</t>
+  </si>
+  <si>
+    <t>[[305.  80.]
+ [454.  80.]
+ [454. 229.]
+ [305. 229.]]</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3.9102</t>
+    <t>4.0135</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>[[ 95.87154269 210.82543581]
+ [146.83254405  70.81123531]
+ [286.84674454 121.77223667]
+ [235.88574319 261.78643717]]</t>
+  </si>
+  <si>
+    <t>[[210. 110.]
+ [359. 110.]
+ [359. 259.]
+ [210. 259.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.9739</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[304.83696815 239.8841948 ]
+ [158.10061295 214.01061633]
+ [183.97419142  67.27426113]
+ [330.71054662  93.1478396 ]]</t>
+  </si>
+  <si>
+    <t>[[ 55. 180.]
+ [204. 180.]
+ [204. 329.]
+ [ 55. 329.]]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.9475</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>[[346.45190528  86.54809472]
- [271.95190528 215.58587988]
- [142.91412012 141.08587988]
- [217.41412012  12.04809472]]</t>
-  </si>
-  <si>
-    <t>[[270. 215.]
- [419. 215.]
- [419. 364.]
- [270. 364.]]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.8674</t>
+    <t>[[196.16303185  53.1158052 ]
+ [342.89938705  78.98938367]
+ [317.02580858 225.72573887]
+ [170.28945338 199.8521604 ]]</t>
+  </si>
+  <si>
+    <t>[[240. 195.]
+ [389. 195.]
+ [389. 344.]
+ [240. 344.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.8897</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>[[141.54809472 167.45190528]
+ [216.04809472  38.41412012]
+ [345.08587988 112.91412012]
+ [270.58587988 241.95190528]]</t>
+  </si>
+  <si>
+    <t>[[225. 505.]
+ [374. 505.]
+ [374. 654.]
+ [225. 654.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.8118</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>[[183.16303185  66.1158052 ]
+ [329.89938705  91.98938367]
+ [304.02580858 238.72573887]
+ [157.28945338 212.8521604 ]]</t>
+  </si>
+  <si>
+    <t>[[410.  15.]
+ [559.  15.]
+ [559. 164.]
+ [410. 164.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.7342</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>[[242.54809472  37.54809472]
+ [371.58587988 112.04809472]
+ [297.08587988 241.08587988]
+ [168.04809472 166.58587988]]</t>
+  </si>
+  <si>
+    <t>[[175. 130.]
+ [324. 130.]
+ [324. 279.]
+ [175. 279.]]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.7114</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>[[160.87154269 108.17456419]
+ [300.88574319  57.21356283]
+ [351.84674454 197.22776333]
+ [211.83254405 248.18876469]]</t>
+  </si>
+  <si>
+    <t>[[520.  55.]
+ [669.  55.]
+ [669. 204.]
+ [520. 204.]]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.7006</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[332. 228.]
+ [183. 228.]
+ [183.  79.]
+ [332.  79.]]</t>
+  </si>
+  <si>
+    <t>[[ 25. 275.]
+ [174. 275.]
+ [174. 424.]
+ [ 25. 424.]]</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>[[343.8841948  174.83696815]
- [197.1478396  200.71054662]
- [171.27426113  53.97419142]
- [318.01061633  28.10061295]]</t>
-  </si>
-  <si>
-    <t>[[100.   5.]
- [249.   5.]
- [249. 154.]
- [100. 154.]]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.8649</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>[[ 2.29548095e+02  2.03451905e+02]
- [ 1.55048095e+02  7.44141201e+01]
- [ 2.84085880e+02 -8.58798800e-02]
- [ 3.58585880e+02  1.28951905e+02]]</t>
-  </si>
-  <si>
-    <t>[[  0. 115.]
- [149. 115.]
- [149. 264.]
- [  0. 264.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.8486</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>[[141.54809472 141.45190528]
- [216.04809472  12.41412012]
- [345.08587988  86.91412012]
- [270.58587988 215.95190528]]</t>
-  </si>
-  <si>
-    <t>[[ 25. 220.]
- [174. 220.]
- [174. 369.]
- [ 25. 369.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.8340</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>[[225.17456419 210.12845731]
- [174.21356283  70.11425681]
- [314.22776333  19.15325546]
- [365.18876469 159.16745595]]</t>
-  </si>
-  <si>
-    <t>[[ 80. 520.]
- [229. 520.]
- [229. 669.]
- [ 80. 669.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.8097</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[372.45190528  86.54809472]
- [297.95190528 215.58587988]
- [168.91412012 141.08587988]
- [243.41412012  12.04809472]]</t>
-  </si>
-  <si>
-    <t>[[480.  15.]
- [629.  15.]
- [629. 164.]
- [480. 164.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.8009</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[147.87154269 158.82543581]
- [198.83254405  18.81123531]
- [338.84674454  69.77223667]
- [287.88574319 209.78643717]]</t>
-  </si>
-  <si>
-    <t>[[ 15. 160.]
- [164. 160.]
- [164. 309.]
- [ 15. 309.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.7888</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[330.83696815  27.1158052 ]
- [356.71054662 173.8521604 ]
- [209.97419142 199.72573887]
- [184.10061295  52.98938367]]</t>
-  </si>
-  <si>
-    <t>[[145. 180.]
- [294. 180.]
- [294. 329.]
- [145. 329.]]</t>
-  </si>
-  <si>
-    <t>3.6275</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>[[242.54809472 229.45190528]
- [168.04809472 100.41412012]
- [297.08587988  25.91412012]
- [371.58587988 154.95190528]]</t>
-  </si>
-  <si>
-    <t>[[ 30.  70.]
- [179.  70.]
- [179. 219.]
- [ 30. 219.]]</t>
+    <t>3.6984</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[185. 155.]
+ [334. 155.]
+ [334. 304.]
+ [185. 304.]]</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>3.6205</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>[[250. 100.]
- [399. 100.]
- [399. 249.]
- [250. 249.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.5961</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>[[ 75. 400.]
- [224. 400.]
- [224. 549.]
- [ 75. 549.]]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.5667</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>[[372.45190528 141.45190528]
- [243.41412012 215.95190528]
- [168.91412012  86.91412012]
- [297.95190528  12.41412012]]</t>
-  </si>
-  <si>
-    <t>[[165. 140.]
- [314. 140.]
- [314. 289.]
- [165. 289.]]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.4904</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>[[157.1158052  174.83696815]
- [182.98938367  28.10061295]
- [329.72573887  53.97419142]
- [303.8521604  200.71054662]]</t>
-  </si>
-  <si>
-    <t>[[260. 195.]
- [409. 195.]
- [409. 344.]
- [260. 344.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.4862</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>[[138.33759604 123.24426251]
- [234.11294988   9.10364048]
- [348.25357191 104.87899433]
- [252.47821806 219.01961635]]</t>
-  </si>
-  <si>
-    <t>[[165. 205.]
- [314. 205.]
- [314. 354.]
- [165. 354.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.4798</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>[[151.33759604 136.24426251]
- [247.11294988  22.10364048]
- [361.25357191 117.87899433]
- [265.47821806 232.01961635]]</t>
-  </si>
-  <si>
-    <t>[[  0. 265.]
- [149. 265.]
- [149. 414.]
- [  0. 414.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.4756</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>[[247.75573749   8.33759604]
- [361.89635952 104.11294988]
- [266.12100567 218.25357191]
- [151.98038365 122.47821806]]</t>
-  </si>
-  <si>
-    <t>[[190. 315.]
- [339. 315.]
- [339. 464.]
- [190. 464.]]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.4051</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>[[151.33759604 104.75573749]
- [265.47821806   8.98038365]
- [361.25357191 123.12100567]
- [247.11294988 218.89635952]]</t>
-  </si>
-  <si>
-    <t>[[ 25. 115.]
- [174. 115.]
- [174. 264.]
- [ 25. 264.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.3712</t>
+    <t>3.6058</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>[[356.8841948  174.83696815]
- [210.1478396  200.71054662]
- [184.27426113  53.97419142]
- [331.01061633  28.10061295]]</t>
+    <t>[[253.24426251  34.33759604]
+ [349.01961635 148.47821806]
+ [234.87899433 244.25357191]
+ [139.10364048 130.11294988]]</t>
   </si>
   <si>
     <t>[[195. 220.]
@@ -415,19 +256,184 @@
  [195. 369.]]</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.5973</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>[[147.87154269 108.17456419]
+ [287.88574319  57.21356283]
+ [338.84674454 197.22776333]
+ [198.83254405 248.18876469]]</t>
+  </si>
+  <si>
+    <t>[[195.  55.]
+ [344.  55.]
+ [344. 204.]
+ [195. 204.]]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.5825</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>[[372.45190528 154.45190528]
+ [243.41412012 228.95190528]
+ [168.91412012  99.91412012]
+ [297.95190528  25.41412012]]</t>
+  </si>
+  <si>
+    <t>[[255.  20.]
+ [404.  20.]
+ [404. 169.]
+ [255. 169.]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.5070</t>
+  </si>
+  <si>
+    <t>[[590.  20.]
+ [739.  20.]
+ [739. 169.]
+ [590. 169.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.4727</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>[[340.12845731 184.82543581]
+ [200.11425681 235.78643717]
+ [149.15325546  95.77223667]
+ [289.16745595  44.81123531]]</t>
+  </si>
+  <si>
+    <t>[[  0. 180.]
+ [149. 180.]
+ [149. 329.]
+ [  0. 329.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.4477</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>[[306. 228.]
+ [157. 228.]
+ [157.  79.]
+ [306.  79.]]</t>
+  </si>
+  <si>
+    <t>[[175. 205.]
+ [324. 205.]
+ [324. 354.]
+ [175. 354.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.4174</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[349.66240396 130.75573749]
+ [253.88705012 244.89635952]
+ [139.74642809 149.12100567]
+ [235.52178194  34.98038365]]</t>
+  </si>
+  <si>
+    <t>[[  0. 225.]
+ [149. 225.]
+ [149. 374.]
+ [  0. 374.]]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.3716</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>[[301.82543581 249.12845731]
+ [161.81123531 198.16745595]
+ [212.77223667  58.15325546]
+ [352.78643717 109.11425681]]</t>
+  </si>
+  <si>
+    <t>[[ 20. 115.]
+ [169. 115.]
+ [169. 264.]
+ [ 20. 264.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.3576</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[[157.1158052  213.83696815]
+ [182.98938367  67.10061295]
+ [329.72573887  92.97419142]
+ [303.8521604  239.71054662]]</t>
+  </si>
+  <si>
+    <t>[[180. 315.]
+ [329. 315.]
+ [329. 464.]
+ [180. 464.]]</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.3435</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>[[255. 115.]
- [404. 115.]
- [404. 264.]
- [255. 264.]]</t>
+    <t>3.3486</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>[[349.66240396 117.75573749]
+ [253.88705012 231.89635952]
+ [139.74642809 136.12100567]
+ [235.52178194  21.98038365]]</t>
+  </si>
+  <si>
+    <t>[[ 45. 390.]
+ [194. 390.]
+ [194. 539.]
+ [ 45. 539.]]</t>
   </si>
 </sst>
 </file>
@@ -947,16 +953,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -973,58 +979,58 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>71</v>
@@ -1126,10 +1132,10 @@
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-1/match_locs.xlsx
+++ b/output/SCAN000702-1/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,337 +34,202 @@
     <t>1</t>
   </si>
   <si>
-    <t>4.5725</t>
+    <t>3.8746</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[310.83696815 236.8841948 ]
+ [164.10061295 211.01061633]
+ [189.97419142  64.27426113]
+ [336.71054662  90.1478396 ]]</t>
+  </si>
+  <si>
+    <t>[[ 50. 175.]
+ [199. 175.]
+ [199. 324.]
+ [ 50. 324.]]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3.8682</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>[[125.33759604 143.75573749]
- [239.47821806  47.98038365]
- [335.25357191 162.12100567]
- [221.11294988 257.89635952]]</t>
-  </si>
-  <si>
-    <t>[[305.  80.]
- [454.  80.]
- [454. 229.]
- [305. 229.]]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4.0135</t>
+    <t>[[119.33759604 140.75573749]
+ [233.47821806  44.98038365]
+ [329.25357191 159.12100567]
+ [215.11294988 254.89635952]]</t>
+  </si>
+  <si>
+    <t>[[300.  75.]
+ [449.  75.]
+ [449. 224.]
+ [300. 224.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.7634</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>[[144.33759604 159.24426251]
+ [240.11294988  45.10364048]
+ [354.25357191 140.87899433]
+ [258.47821806 255.01961635]]</t>
+  </si>
+  <si>
+    <t>[[225. 500.]
+ [374. 500.]
+ [374. 649.]
+ [225. 649.]]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.5055</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>[[153.87154269 105.17456419]
+ [293.88574319  54.21356283]
+ [344.84674454 194.22776333]
+ [204.83254405 245.18876469]]</t>
+  </si>
+  <si>
+    <t>[[450.  50.]
+ [599.  50.]
+ [599. 199.]
+ [450. 199.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.4861</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[205.17456419  53.87154269]
+ [345.18876469 104.83254405]
+ [294.22776333 244.84674454]
+ [154.21356283 193.88574319]]</t>
+  </si>
+  <si>
+    <t>[[175. 150.]
+ [324. 150.]
+ [324. 299.]
+ [175. 299.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.4577</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>[[450.   0.]
+ [599.   0.]
+ [599. 149.]
+ [450. 149.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.4378</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[225. 200.]
+ [374. 200.]
+ [374. 349.]
+ [225. 349.]]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.3916</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>[[346.12845731 194.82543581]
+ [206.11425681 245.78643717]
+ [155.15325546 105.77223667]
+ [295.16745595  54.81123531]]</t>
+  </si>
+  <si>
+    <t>[[  0. 175.]
+ [149. 175.]
+ [149. 324.]
+ [  0. 324.]]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.3707</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[  0. 250.]
+ [149. 250.]
+ [149. 399.]
+ [  0. 399.]]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.3489</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>[[ 95.87154269 210.82543581]
- [146.83254405  70.81123531]
- [286.84674454 121.77223667]
- [235.88574319 261.78643717]]</t>
-  </si>
-  <si>
-    <t>[[210. 110.]
- [359. 110.]
- [359. 259.]
- [210. 259.]]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.9739</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[304.83696815 239.8841948 ]
- [158.10061295 214.01061633]
- [183.97419142  67.27426113]
- [330.71054662  93.1478396 ]]</t>
-  </si>
-  <si>
-    <t>[[ 55. 180.]
- [204. 180.]
- [204. 329.]
- [ 55. 329.]]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.9475</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>[[196.16303185  53.1158052 ]
- [342.89938705  78.98938367]
- [317.02580858 225.72573887]
- [170.28945338 199.8521604 ]]</t>
-  </si>
-  <si>
-    <t>[[240. 195.]
- [389. 195.]
- [389. 344.]
- [240. 344.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.8897</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>[[141.54809472 167.45190528]
- [216.04809472  38.41412012]
- [345.08587988 112.91412012]
- [270.58587988 241.95190528]]</t>
-  </si>
-  <si>
-    <t>[[225. 505.]
- [374. 505.]
- [374. 654.]
- [225. 654.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.8118</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>[[183.16303185  66.1158052 ]
- [329.89938705  91.98938367]
- [304.02580858 238.72573887]
- [157.28945338 212.8521604 ]]</t>
-  </si>
-  <si>
-    <t>[[410.  15.]
- [559.  15.]
- [559. 164.]
- [410. 164.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.7342</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>[[242.54809472  37.54809472]
- [371.58587988 112.04809472]
- [297.08587988 241.08587988]
- [168.04809472 166.58587988]]</t>
-  </si>
-  <si>
-    <t>[[175. 130.]
- [324. 130.]
- [324. 279.]
- [175. 279.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.7114</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[160.87154269 108.17456419]
- [300.88574319  57.21356283]
- [351.84674454 197.22776333]
- [211.83254405 248.18876469]]</t>
-  </si>
-  <si>
-    <t>[[520.  55.]
- [669.  55.]
- [669. 204.]
- [520. 204.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.7006</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[332. 228.]
- [183. 228.]
- [183.  79.]
- [332.  79.]]</t>
-  </si>
-  <si>
-    <t>[[ 25. 275.]
- [174. 275.]
- [174. 424.]
- [ 25. 424.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.6984</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>[[185. 155.]
- [334. 155.]
- [334. 304.]
- [185. 304.]]</t>
+    <t>[[225. 100.]
+ [374. 100.]
+ [374. 249.]
+ [225. 249.]]</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>3.6058</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>[[253.24426251  34.33759604]
- [349.01961635 148.47821806]
- [234.87899433 244.25357191]
- [139.10364048 130.11294988]]</t>
-  </si>
-  <si>
-    <t>[[195. 220.]
- [344. 220.]
- [344. 369.]
- [195. 369.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.5973</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>[[147.87154269 108.17456419]
- [287.88574319  57.21356283]
- [338.84674454 197.22776333]
- [198.83254405 248.18876469]]</t>
-  </si>
-  <si>
-    <t>[[195.  55.]
- [344.  55.]
- [344. 204.]
- [195. 204.]]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.5825</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>[[372.45190528 154.45190528]
- [243.41412012 228.95190528]
- [168.91412012  99.91412012]
- [297.95190528  25.41412012]]</t>
-  </si>
-  <si>
-    <t>[[255.  20.]
- [404.  20.]
- [404. 169.]
- [255. 169.]]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.5070</t>
-  </si>
-  <si>
-    <t>[[590.  20.]
- [739.  20.]
- [739. 169.]
- [590. 169.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.4727</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>[[340.12845731 184.82543581]
- [200.11425681 235.78643717]
- [149.15325546  95.77223667]
- [289.16745595  44.81123531]]</t>
-  </si>
-  <si>
-    <t>[[  0. 180.]
- [149. 180.]
- [149. 329.]
- [  0. 329.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.4477</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>[[306. 228.]
- [157. 228.]
- [157.  79.]
- [306.  79.]]</t>
-  </si>
-  <si>
-    <t>[[175. 205.]
- [324. 205.]
- [324. 354.]
- [175. 354.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.4174</t>
+    <t>3.3374</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>[[349.66240396 130.75573749]
- [253.88705012 244.89635952]
- [139.74642809 149.12100567]
- [235.52178194  34.98038365]]</t>
+    <t>[[355.66240396 159.24426251]
+ [241.52178194 255.01961635]
+ [145.74642809 140.87899433]
+ [259.88705012  45.10364048]]</t>
   </si>
   <si>
     <t>[[  0. 225.]
@@ -373,67 +238,172 @@
  [  0. 374.]]</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.2850</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>[[240.75573749  44.33759604]
+ [354.89635952 140.11294988]
+ [259.12100567 254.25357191]
+ [144.98038365 158.47821806]]</t>
+  </si>
+  <si>
+    <t>[[150. 150.]
+ [299. 150.]
+ [299. 299.]
+ [150. 299.]]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.2243</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>[[172.54809472  97.54809472]
+ [301.58587988  23.04809472]
+ [376.08587988 152.08587988]
+ [247.04809472 226.58587988]]</t>
+  </si>
+  <si>
+    <t>[[200. 225.]
+ [349. 225.]
+ [349. 374.]
+ [200. 374.]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.2141</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>[[175. 200.]
+ [324. 200.]
+ [324. 349.]
+ [175. 349.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.1709</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>[[163.1158052   89.16303185]
+ [309.8521604   63.28945338]
+ [335.72573887 210.02580858]
+ [188.98938367 235.89938705]]</t>
+  </si>
+  <si>
+    <t>[[175.  50.]
+ [324.  50.]
+ [324. 199.]
+ [175. 199.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.1626</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>[[153.87154269 194.82543581]
+ [204.83254405  54.81123531]
+ [344.84674454 105.77223667]
+ [293.88574319 245.78643717]]</t>
+  </si>
+  <si>
+    <t>[[100.  50.]
+ [249.  50.]
+ [249. 199.]
+ [100. 199.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.1165</t>
+  </si>
+  <si>
+    <t>[[150.   0.]
+ [299.   0.]
+ [299. 149.]
+ [150. 149.]]</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.3716</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>[[301.82543581 249.12845731]
- [161.81123531 198.16745595]
- [212.77223667  58.15325546]
- [352.78643717 109.11425681]]</t>
-  </si>
-  <si>
-    <t>[[ 20. 115.]
- [169. 115.]
- [169. 264.]
- [ 20. 264.]]</t>
+    <t>3.0813</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[[175. 300.]
+ [324. 300.]
+ [324. 449.]
+ [175. 449.]]</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.3576</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>[[157.1158052  213.83696815]
- [182.98938367  67.10061295]
- [329.72573887  92.97419142]
- [303.8521604  239.71054662]]</t>
-  </si>
-  <si>
-    <t>[[180. 315.]
- [329. 315.]
- [329. 464.]
- [180. 464.]]</t>
+    <t>3.0726</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>[[260.83696815 236.8841948 ]
+ [114.10061295 211.01061633]
+ [139.97419142  64.27426113]
+ [286.71054662  90.1478396 ]]</t>
+  </si>
+  <si>
+    <t>[[100. 125.]
+ [249. 125.]
+ [249. 274.]
+ [100. 274.]]</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.3486</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>[[349.66240396 117.75573749]
- [253.88705012 231.89635952]
- [139.74642809 136.12100567]
- [235.52178194  21.98038365]]</t>
-  </si>
-  <si>
-    <t>[[ 45. 390.]
- [194. 390.]
- [194. 539.]
- [ 45. 539.]]</t>
+    <t>3.0685</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>[[286.8841948   89.16303185]
+ [261.01061633 235.89938705]
+ [114.27426113 210.02580858]
+ [140.1478396   63.28945338]]</t>
+  </si>
+  <si>
+    <t>[[  0. 275.]
+ [149. 275.]
+ [149. 424.]
+ [  0. 424.]]</t>
   </si>
 </sst>
 </file>
@@ -894,248 +864,248 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-1/match_locs.xlsx
+++ b/output/SCAN000702-1/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,28 +34,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3.8746</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[310.83696815 236.8841948 ]
- [164.10061295 211.01061633]
- [189.97419142  64.27426113]
- [336.71054662  90.1478396 ]]</t>
-  </si>
-  <si>
-    <t>[[ 50. 175.]
- [199. 175.]
- [199. 324.]
- [ 50. 324.]]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.8682</t>
+    <t>4.5629</t>
   </si>
   <si>
     <t>119</t>
@@ -73,10 +52,10 @@
  [300. 224.]]</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.7634</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4.5219</t>
   </si>
   <si>
     <t>100</t>
@@ -94,70 +73,223 @@
  [225. 649.]]</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.3125</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[269.82543581  53.87154269]
+ [320.78643717 193.88574319]
+ [180.77223667 244.84674454]
+ [129.81123531 104.83254405]]</t>
+  </si>
+  <si>
+    <t>[[ 75.  50.]
+ [224.  50.]
+ [224. 199.]
+ [ 75. 199.]]</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>3.5055</t>
+    <t>4.3090</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>[[300.  75.]
+ [300. 224.]
+ [151. 224.]
+ [151.  75.]]</t>
+  </si>
+  <si>
+    <t>[[ 75. 100.]
+ [224. 100.]
+ [224. 249.]
+ [ 75. 249.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.2559</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[222.54809472 252.45190528]
+ [148.04809472 123.41412012]
+ [277.08587988  48.91412012]
+ [351.58587988 177.95190528]]</t>
+  </si>
+  <si>
+    <t>[[125. 175.]
+ [274. 175.]
+ [274. 324.]
+ [125. 324.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.1969</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>[[259.24426251  44.33759604]
+ [355.01961635 158.47821806]
+ [240.87899433 254.25357191]
+ [145.10364048 140.11294988]]</t>
+  </si>
+  <si>
+    <t>[[100.  25.]
+ [249.  25.]
+ [249. 174.]
+ [100. 174.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.1843</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[[153.87154269 194.82543581]
+ [204.83254405  54.81123531]
+ [344.84674454 105.77223667]
+ [293.88574319 245.78643717]]</t>
+  </si>
+  <si>
+    <t>[[175. 300.]
+ [324. 300.]
+ [324. 449.]
+ [175. 449.]]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.1396</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>[[346.12845731 105.17456419]
+ [295.16745595 245.18876469]
+ [155.15325546 194.22776333]
+ [206.11425681  54.21356283]]</t>
+  </si>
+  <si>
+    <t>[[  0.  75.]
+ [149.  75.]
+ [149. 224.]
+ [  0. 224.]]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.1222</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>[[252.45190528  47.54809472]
+ [326.95190528 176.58587988]
+ [197.91412012 251.08587988]
+ [123.41412012 122.04809472]]</t>
+  </si>
+  <si>
+    <t>4.0659</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>[[346.12845731 194.82543581]
+ [206.11425681 245.78643717]
+ [155.15325546 105.77223667]
+ [295.16745595  54.81123531]]</t>
+  </si>
+  <si>
+    <t>[[  0. 175.]
+ [149. 175.]
+ [149. 324.]
+ [  0. 324.]]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.0063</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[355.66240396 159.24426251]
+ [241.52178194 255.01961635]
+ [145.74642809 140.87899433]
+ [259.88705012  45.10364048]]</t>
+  </si>
+  <si>
+    <t>[[  0. 225.]
+ [149. 225.]
+ [149. 374.]
+ [  0. 374.]]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.9989</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>[[153.87154269 105.17456419]
- [293.88574319  54.21356283]
- [344.84674454 194.22776333]
- [204.83254405 245.18876469]]</t>
-  </si>
-  <si>
-    <t>[[450.  50.]
- [599.  50.]
- [599. 199.]
- [450. 199.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.4861</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>[[205.17456419  53.87154269]
- [345.18876469 104.83254405]
- [294.22776333 244.84674454]
- [154.21356283 193.88574319]]</t>
-  </si>
-  <si>
-    <t>[[175. 150.]
- [324. 150.]
- [324. 299.]
- [175. 299.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.4577</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[450.   0.]
- [599.   0.]
- [599. 149.]
- [450. 149.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.4378</t>
-  </si>
-  <si>
-    <t>220</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.9847</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>[[371.12845731 105.17456419]
+ [320.16745595 245.18876469]
+ [180.15325546 194.22776333]
+ [231.11425681  54.21356283]]</t>
+  </si>
+  <si>
+    <t>[[ 50. 275.]
+ [199. 275.]
+ [199. 424.]
+ [ 50. 424.]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.9815</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>[[225. 200.]
@@ -166,82 +298,52 @@
  [225. 349.]]</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.3916</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>[[346.12845731 194.82543581]
- [206.11425681 245.78643717]
- [155.15325546 105.77223667]
- [295.16745595  54.81123531]]</t>
-  </si>
-  <si>
-    <t>[[  0. 175.]
- [149. 175.]
- [149. 324.]
- [  0. 324.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.3707</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[  0. 250.]
- [149. 250.]
- [149. 399.]
- [  0. 399.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.3489</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>[[225. 100.]
- [374. 100.]
- [374. 249.]
- [225. 249.]]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.3374</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[355.66240396 159.24426251]
- [241.52178194 255.01961635]
- [145.74642809 140.87899433]
- [259.88705012  45.10364048]]</t>
-  </si>
-  <si>
-    <t>[[  0. 225.]
- [149. 225.]
- [149. 374.]
- [  0. 374.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.2850</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.8985</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[327.45190528 122.54809472]
+ [252.95190528 251.58587988]
+ [123.91412012 177.08587988]
+ [198.41412012  48.04809472]]</t>
+  </si>
+  <si>
+    <t>[[175. 375.]
+ [324. 375.]
+ [324. 524.]
+ [175. 524.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.8569</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>[[165.75573749  44.33759604]
+ [279.89635952 140.11294988]
+ [184.12100567 254.25357191]
+ [ 69.98038365 158.47821806]]</t>
+  </si>
+  <si>
+    <t>[[150. 250.]
+ [299. 250.]
+ [299. 399.]
+ [150. 399.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.7391</t>
   </si>
   <si>
     <t>247</t>
@@ -259,10 +361,31 @@
  [150. 299.]]</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.2243</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.7075</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>[[330.66240396 140.75573749]
+ [234.88705012 254.89635952]
+ [120.74642809 159.12100567]
+ [216.52178194  44.98038365]]</t>
+  </si>
+  <si>
+    <t>[[  0.  50.]
+ [149.  50.]
+ [149. 199.]
+ [  0. 199.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.7055</t>
   </si>
   <si>
     <t>115</t>
@@ -280,115 +403,10 @@
  [200. 374.]]</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.2141</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>[[175. 200.]
- [324. 200.]
- [324. 349.]
- [175. 349.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.1709</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>[[163.1158052   89.16303185]
- [309.8521604   63.28945338]
- [335.72573887 210.02580858]
- [188.98938367 235.89938705]]</t>
-  </si>
-  <si>
-    <t>[[175.  50.]
- [324.  50.]
- [324. 199.]
- [175. 199.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.1626</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>[[153.87154269 194.82543581]
- [204.83254405  54.81123531]
- [344.84674454 105.77223667]
- [293.88574319 245.78643717]]</t>
-  </si>
-  <si>
-    <t>[[100.  50.]
- [249.  50.]
- [249. 199.]
- [100. 199.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.1165</t>
-  </si>
-  <si>
-    <t>[[150.   0.]
- [299.   0.]
- [299. 149.]
- [150. 149.]]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.0813</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>[[175. 300.]
- [324. 300.]
- [324. 449.]
- [175. 449.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.0726</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>[[260.83696815 236.8841948 ]
- [114.10061295 211.01061633]
- [139.97419142  64.27426113]
- [286.71054662  90.1478396 ]]</t>
-  </si>
-  <si>
-    <t>[[100. 125.]
- [249. 125.]
- [249. 274.]
- [100. 274.]]</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.0685</t>
+    <t>3.6903</t>
   </si>
   <si>
     <t>113</t>
@@ -864,112 +882,112 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1000,7 +1018,7 @@
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
@@ -1048,64 +1066,64 @@
         <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
